--- a/clustering/two_step/second_step/results/descriptive_stat/raw/statistics_cluster_M.xlsx
+++ b/clustering/two_step/second_step/results/descriptive_stat/raw/statistics_cluster_M.xlsx
@@ -26,12 +26,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="12">
   <si>
     <t>Cluster_0</t>
   </si>
   <si>
     <t>Cluster_1</t>
+  </si>
+  <si>
+    <t>Cluster_2</t>
   </si>
   <si>
     <t>len</t>
@@ -416,45 +419,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>121.2950329175638</v>
+        <v>161.0185948741434</v>
       </c>
       <c r="C3">
-        <v>359.9559729231669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>240.4939050105212</v>
+      </c>
+      <c r="D3">
+        <v>255.1819869298535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>0.1235824589018344</v>
@@ -462,71 +474,92 @@
       <c r="C4">
         <v>0.1940469776089128</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>0.5385014257140451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>5.957728621576306</v>
+        <v>1.184888577223756</v>
       </c>
       <c r="C5">
-        <v>22.85030738360645</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>17.29278869666284</v>
+      </c>
+      <c r="D5">
+        <v>11.9667282588492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>30.09014957486187</v>
+        <v>6.876499937805107</v>
       </c>
       <c r="C6">
-        <v>74.66423311358162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>53.98992075419722</v>
+      </c>
+      <c r="D6">
+        <v>51.25381179810112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>63.13851609219242</v>
+        <v>32.17199090467967</v>
       </c>
       <c r="C7">
-        <v>128.8958137521584</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>109.5169510872752</v>
+      </c>
+      <c r="D7">
+        <v>115.8034934817599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>142.5027956553078</v>
+        <v>111.9811626520579</v>
       </c>
       <c r="C8">
-        <v>447.9217490808305</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>341.7581718368691</v>
+      </c>
+      <c r="D8">
+        <v>228.7464098225675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>1911.560405161328</v>
+        <v>3909.535210332222</v>
       </c>
       <c r="C9">
+        <v>1789.413420299118</v>
+      </c>
+      <c r="D9">
         <v>5372.912660173766</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>248.8368044783458</v>
+        <v>665.4790681323299</v>
       </c>
       <c r="C10">
-        <v>758.1637417514941</v>
+        <v>407.4360758649038</v>
+      </c>
+      <c r="D10">
+        <v>619.1711188355905</v>
       </c>
     </row>
   </sheetData>
@@ -536,45 +569,54 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>1300.824040110585</v>
+        <v>0.4537009162342409</v>
       </c>
       <c r="C3">
-        <v>1026.565154026858</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>554.1873385618344</v>
+      </c>
+      <c r="D3">
+        <v>1857.266839775402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -582,71 +624,92 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.716611046214704</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>7.793954137545867</v>
+      </c>
+      <c r="D5">
+        <v>1220.47846221924</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>449.1304779052734</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>464.2833622378376</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>338.0659700528842</v>
+      </c>
+      <c r="D6">
+        <v>2182.521530619337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>2200.894519584407</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1110.08448359792</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>512.3827900133664</v>
+      </c>
+      <c r="D7">
+        <v>2320.213821411133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>2353.236061126706</v>
+        <v>0.3060668945312516</v>
       </c>
       <c r="C8">
-        <v>2262.544039425146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>983.9677389264108</v>
+      </c>
+      <c r="D8">
+        <v>2395.682494539217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
+        <v>6.050346991259204</v>
+      </c>
+      <c r="C9">
+        <v>2549.57541240345</v>
+      </c>
+      <c r="D9">
         <v>2566.900532343623</v>
       </c>
-      <c r="C9">
-        <v>2563.747619628906</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>1092.011264702511</v>
+        <v>1.187993194335978</v>
       </c>
       <c r="C10">
-        <v>931.1174935745208</v>
+        <v>589.3749024518027</v>
+      </c>
+      <c r="D10">
+        <v>823.1438475668924</v>
       </c>
     </row>
   </sheetData>
@@ -656,117 +719,147 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>3.641825924571763</v>
+        <v>2.651681612519657</v>
       </c>
       <c r="C3">
-        <v>3.911433843297696</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>3.862077232817529</v>
+      </c>
+      <c r="D3">
+        <v>4.033679865608531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
+        <v>2.336676836013794</v>
+      </c>
+      <c r="C4">
         <v>1.835683822631836</v>
       </c>
-      <c r="C4">
-        <v>2.346977472305298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>2.921538829803467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>3.211366844177247</v>
+        <v>2.434271574020386</v>
       </c>
       <c r="C5">
-        <v>3.287520503997803</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>3.341803073883057</v>
+      </c>
+      <c r="D5">
+        <v>3.624712944030762</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>3.65380277633667</v>
+        <v>2.564858770370483</v>
       </c>
       <c r="C6">
-        <v>3.699585962295532</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>3.675570011138916</v>
+      </c>
+      <c r="D6">
+        <v>3.828906297683716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>3.852805805206299</v>
+        <v>2.612285661697388</v>
       </c>
       <c r="C7">
-        <v>4.243128681182862</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>4.187830924987793</v>
+      </c>
+      <c r="D7">
+        <v>4.054961204528809</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>4.099512672424316</v>
+        <v>2.834949827194214</v>
       </c>
       <c r="C8">
-        <v>4.560657119750976</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>4.47354793548584</v>
+      </c>
+      <c r="D8">
+        <v>4.472301959991455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>4.911309242248535</v>
+        <v>3.693941116333008</v>
       </c>
       <c r="C9">
+        <v>4.66297435760498</v>
+      </c>
+      <c r="D9">
         <v>5.320056438446045</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.6254345704487143</v>
+        <v>0.2753407452039263</v>
       </c>
       <c r="C10">
-        <v>0.7173226213486507</v>
+        <v>0.5834780258263802</v>
+      </c>
+      <c r="D10">
+        <v>0.4759221217413039</v>
       </c>
     </row>
   </sheetData>
@@ -776,117 +869,147 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>4.08451441821889</v>
+        <v>12.85771111881032</v>
       </c>
       <c r="C3">
-        <v>2.716797693060079</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>2.131089961025077</v>
+      </c>
+      <c r="D3">
+        <v>1.533467522337417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
+        <v>4.104885578155518</v>
+      </c>
+      <c r="C4">
+        <v>1.244011640548706</v>
+      </c>
+      <c r="D4">
         <v>1.137179255485535</v>
       </c>
-      <c r="C4">
-        <v>1.139044165611267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>1.319711947441101</v>
+        <v>5.442209529876709</v>
       </c>
       <c r="C5">
-        <v>1.329291582107544</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>1.510578274726868</v>
+      </c>
+      <c r="D5">
+        <v>1.260597825050354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>1.474262595176697</v>
+        <v>6.865978622436524</v>
       </c>
       <c r="C6">
-        <v>1.514179921150208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>1.793495178222656</v>
+      </c>
+      <c r="D6">
+        <v>1.346749663352966</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>1.66606662273407</v>
+        <v>9.110290336608886</v>
       </c>
       <c r="C7">
-        <v>1.886604380607605</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>2.150264501571656</v>
+      </c>
+      <c r="D7">
+        <v>1.477241277694702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>3.934501791000369</v>
+        <v>14.98543548583985</v>
       </c>
       <c r="C8">
-        <v>2.593350744247437</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>2.575598478317261</v>
+      </c>
+      <c r="D8">
+        <v>1.556743025779724</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>98.77169036865234</v>
       </c>
       <c r="C9">
-        <v>17.96014785766602</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>4.134792804718018</v>
+      </c>
+      <c r="D9">
+        <v>4.328180313110352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>10.04966235962327</v>
+        <v>16.62886919132237</v>
       </c>
       <c r="C10">
-        <v>2.957819280825377</v>
+        <v>0.6905570677578921</v>
+      </c>
+      <c r="D10">
+        <v>0.5035256774564165</v>
       </c>
     </row>
   </sheetData>
@@ -896,117 +1019,147 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>33.34707808759443</v>
+        <v>40.61499303587269</v>
       </c>
       <c r="C3">
-        <v>41.17740127091308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>43.05714022822497</v>
+      </c>
+      <c r="D3">
+        <v>32.66097649053247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.3319313416377261</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>5.17499229587858</v>
+        <v>14.35827831931165</v>
       </c>
       <c r="C5">
-        <v>10.98588389982108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>8.42910680217007</v>
+      </c>
+      <c r="D5">
+        <v>5.029496591494643</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>16.10988041250674</v>
+        <v>20.97841534451552</v>
       </c>
       <c r="C6">
-        <v>21.99139410885084</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>25.50279683558957</v>
+      </c>
+      <c r="D6">
+        <v>15.02534298997298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>30.7818808639185</v>
+        <v>56.45759062810889</v>
       </c>
       <c r="C7">
-        <v>47.82053205148954</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>57.79971924474759</v>
+      </c>
+      <c r="D7">
+        <v>29.05561073320841</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>66.31624449073367</v>
+        <v>65.55288557215798</v>
       </c>
       <c r="C8">
-        <v>75.82948623327231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>75.00159320065515</v>
+      </c>
+      <c r="D8">
+        <v>70.57284051123661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
+        <v>91.8709986992092</v>
+      </c>
+      <c r="C9">
+        <v>98.13857464612556</v>
+      </c>
+      <c r="D9">
         <v>99.81813387984678</v>
       </c>
-      <c r="C9">
-        <v>99.49067967685464</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>30.06952003882394</v>
+        <v>28.32048739441089</v>
       </c>
       <c r="C10">
-        <v>32.30998537938506</v>
+        <v>31.39066782953123</v>
+      </c>
+      <c r="D10">
+        <v>31.66512577005673</v>
       </c>
     </row>
   </sheetData>
@@ -1016,117 +1169,147 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>3858.397092462337</v>
+        <v>2757.157011995008</v>
       </c>
       <c r="C3">
-        <v>2865.383612600103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>2943.599311590753</v>
+      </c>
+      <c r="D3">
+        <v>3810.085818683727</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>747.224210455616</v>
       </c>
       <c r="C4">
+        <v>1273.397090256353</v>
+      </c>
+      <c r="D4">
         <v>464.8400938428857</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>2804.40928696229</v>
+        <v>2251.878358143204</v>
       </c>
       <c r="C5">
-        <v>1685.655103040662</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>1989.983012723052</v>
+      </c>
+      <c r="D5">
+        <v>2299.530319888194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>3462.825771845814</v>
+        <v>2538.251578149031</v>
       </c>
       <c r="C6">
-        <v>2175.849554102902</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>2501.138799815205</v>
+      </c>
+      <c r="D6">
+        <v>3714.448719587131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>4297.485096841987</v>
+        <v>2911.794701723913</v>
       </c>
       <c r="C7">
-        <v>2924.174938523302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>3282.738612858173</v>
+      </c>
+      <c r="D7">
+        <v>4704.726792552548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>4938.899287274409</v>
+        <v>3335.268196028354</v>
       </c>
       <c r="C8">
-        <v>4411.05312347006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>3805.78593221452</v>
+      </c>
+      <c r="D8">
+        <v>5124.732076053292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
+        <v>4265.410335731246</v>
+      </c>
+      <c r="C9">
+        <v>4987.107589584567</v>
+      </c>
+      <c r="D9">
         <v>5705.31404524861</v>
       </c>
-      <c r="C9">
-        <v>5686.2059786502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>1067.762572880433</v>
+        <v>740.8329563187176</v>
       </c>
       <c r="C10">
-        <v>1395.996583544287</v>
+        <v>992.4094281751813</v>
+      </c>
+      <c r="D10">
+        <v>1478.236944571608</v>
       </c>
     </row>
   </sheetData>
@@ -1136,117 +1319,147 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>165.9436004777271</v>
+        <v>338.0767596993521</v>
       </c>
       <c r="C3">
-        <v>276.0305605398449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>367.175727222747</v>
+      </c>
+      <c r="D3">
+        <v>98.66649497639789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
+        <v>4.994351844534296</v>
+      </c>
+      <c r="C4">
+        <v>44.57528637194395</v>
+      </c>
+      <c r="D4">
         <v>3.371320473705212</v>
       </c>
-      <c r="C4">
-        <v>9.525982822085348</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>19.74701323511626</v>
+        <v>141.3604665215465</v>
       </c>
       <c r="C5">
-        <v>74.5672028204018</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>228.2895338113541</v>
+      </c>
+      <c r="D5">
+        <v>16.42947406029014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>68.32749268754561</v>
+        <v>228.3680666170634</v>
       </c>
       <c r="C6">
-        <v>157.4165312160461</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>301.0385198919815</v>
+      </c>
+      <c r="D6">
+        <v>42.30652614181991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>141.3604665215464</v>
+        <v>374.9622091412381</v>
       </c>
       <c r="C7">
-        <v>319.7581783232746</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>426.5336550820866</v>
+      </c>
+      <c r="D7">
+        <v>80.64402753163527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>337.6220633960682</v>
+        <v>481.9917261522681</v>
       </c>
       <c r="C8">
-        <v>474.8793266333038</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>527.4853834495224</v>
+      </c>
+      <c r="D8">
+        <v>156.7904238868539</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>710.5842206251764</v>
+        <v>915.8801516377896</v>
       </c>
       <c r="C9">
-        <v>915.8801516377896</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>691.5637041278211</v>
+      </c>
+      <c r="D9">
+        <v>532.7491328314903</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>172.4503376188215</v>
+        <v>218.0716576367024</v>
       </c>
       <c r="C10">
-        <v>210.6577549304531</v>
+        <v>174.848516910273</v>
+      </c>
+      <c r="D10">
+        <v>108.9287788236173</v>
       </c>
     </row>
   </sheetData>
@@ -1256,117 +1469,147 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>0.5044842360809314</v>
+        <v>0.3940642108231484</v>
       </c>
       <c r="C3">
-        <v>0.4086984011959629</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0.3479213321752049</v>
+      </c>
+      <c r="D3">
+        <v>0.5410924264413417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.1586265015416484</v>
+        <v>0.1772477927550515</v>
       </c>
       <c r="C4">
         <v>0.1240760362645335</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>0.1939448980581444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>0.3720376195103305</v>
+        <v>0.3101166164110944</v>
       </c>
       <c r="C5">
-        <v>0.3015229557595795</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.2656701020861602</v>
+      </c>
+      <c r="D5">
+        <v>0.4179796692763852</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.4528839903912477</v>
+        <v>0.389023013469712</v>
       </c>
       <c r="C6">
-        <v>0.3813984648833583</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.3193472527647494</v>
+      </c>
+      <c r="D6">
+        <v>0.4813557741394141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.5344652378510617</v>
+        <v>0.4391614826277632</v>
       </c>
       <c r="C7">
-        <v>0.4438637452772128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.3772090623567017</v>
+      </c>
+      <c r="D7">
+        <v>0.5755175112966827</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.6176165469082682</v>
+        <v>0.4639579044176996</v>
       </c>
       <c r="C8">
-        <v>0.4921528230161271</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.4210645765991715</v>
+      </c>
+      <c r="D8">
+        <v>0.6453287783054165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
+        <v>0.5345501553027986</v>
+      </c>
+      <c r="C9">
+        <v>0.6171425484045692</v>
+      </c>
+      <c r="D9">
         <v>1.07571472041435</v>
       </c>
-      <c r="C9">
-        <v>0.699538067331731</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.1770777741109392</v>
+        <v>0.08872881769280577</v>
       </c>
       <c r="C10">
-        <v>0.1181050251164814</v>
+        <v>0.1030840259122567</v>
+      </c>
+      <c r="D10">
+        <v>0.1533839340741982</v>
       </c>
     </row>
   </sheetData>
@@ -1376,100 +1619,124 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>7.481446577083601</v>
+        <v>13.36465572487145</v>
       </c>
       <c r="C3">
-        <v>6.451125037601006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>15.41311128109937</v>
+      </c>
+      <c r="D3">
+        <v>0.2460552315174075</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>1.036751062117948</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2.500412066742001</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>4.274406909840009</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>5.945970672824795</v>
       </c>
       <c r="C6">
-        <v>0.6478034719736862</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>6.920430212721728</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>1.126199376110879</v>
+        <v>9.070408365381036</v>
       </c>
       <c r="C7">
-        <v>4.272211609989496</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>12.72933665215231</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>9.391413419439704</v>
+        <v>20.54893338692003</v>
       </c>
       <c r="C8">
-        <v>9.613196370497747</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>23.1974346036708</v>
+      </c>
+      <c r="D8">
+        <v>0.0162147315350174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>96.22292509590136</v>
@@ -1477,16 +1744,22 @@
       <c r="C9">
         <v>86.39008716925015</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>5.733193542780977</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>15.69749967767916</v>
+        <v>18.59223858586969</v>
       </c>
       <c r="C10">
-        <v>11.26393370552478</v>
+        <v>16.44783474115571</v>
+      </c>
+      <c r="D10">
+        <v>0.8152593270513941</v>
       </c>
     </row>
   </sheetData>
@@ -1496,56 +1769,68 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>232.7196581196581</v>
+        <v>265.5911764705882</v>
       </c>
       <c r="C3">
-        <v>252.7752293577982</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>367.9591549295774</v>
+      </c>
+      <c r="D3">
+        <v>162.194214876033</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>-1.4210854715202E-14</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1553,10 +1838,13 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1564,10 +1852,13 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1575,38 +1866,50 @@
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>92.02000000000021</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>129.2000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>174</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
+        <v>3313.099999999999</v>
+      </c>
+      <c r="C9">
         <v>12272</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>5277.3</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>1217.862359390654</v>
+        <v>817.0697408636166</v>
       </c>
       <c r="C10">
-        <v>746.6686227846355</v>
+        <v>1499.613893886162</v>
+      </c>
+      <c r="D10">
+        <v>651.3977382390271</v>
       </c>
     </row>
   </sheetData>
@@ -1616,117 +1919,147 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>71617204.8888889</v>
+        <v>44065947.76470588</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>4429126.535211268</v>
+      </c>
+      <c r="D3">
+        <v>54268617.88429752</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>15768</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>587619.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>5087622.200000002</v>
+        <v>3153.600000000017</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>28335225.59999998</v>
+        <v>952035.0000000007</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>9149766</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>90751455.80000003</v>
+        <v>89599671.40000001</v>
       </c>
       <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>1780906</v>
+      </c>
+      <c r="D8">
+        <v>54509810</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
+        <v>314560087</v>
+      </c>
+      <c r="C9">
+        <v>209742347</v>
+      </c>
+      <c r="D9">
         <v>1447114684</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>174300233.0655484</v>
+        <v>84701062.22500741</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>25064237.60102816</v>
+      </c>
+      <c r="D10">
+        <v>168813179.2072572</v>
       </c>
     </row>
   </sheetData>
@@ -1736,117 +2069,147 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>20.01161980033169</v>
+        <v>7.412554660814428</v>
       </c>
       <c r="C3">
-        <v>20.0895297596334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>17.93559820033277</v>
+      </c>
+      <c r="D3">
+        <v>24.84019776650852</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>-4.84112448167906</v>
       </c>
       <c r="C4">
+        <v>3.750535752167309</v>
+      </c>
+      <c r="D4">
         <v>-0.203643798828125</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>8.94505378591216</v>
+        <v>5.476078784177481</v>
       </c>
       <c r="C5">
-        <v>15.85775881857882</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>14.32842432481766</v>
+      </c>
+      <c r="D5">
+        <v>23.99377187093097</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>18.02153470803593</v>
+        <v>7.989763480978536</v>
       </c>
       <c r="C6">
-        <v>19.10216554759791</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>18.01738866170245</v>
+      </c>
+      <c r="D6">
+        <v>26.9822705537531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>27.06154089785948</v>
+        <v>8.64882723490399</v>
       </c>
       <c r="C7">
-        <v>23.45630692234576</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>19.22637593541799</v>
+      </c>
+      <c r="D7">
+        <v>27.30802419597984</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>27.44000721736429</v>
+        <v>9.135958782465401</v>
       </c>
       <c r="C8">
-        <v>27.11092182984053</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>22.55005023914213</v>
+      </c>
+      <c r="D8">
+        <v>27.53302804971844</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>28.03845851170769</v>
+        <v>11.45396517471232</v>
       </c>
       <c r="C9">
+        <v>27.99805284475224</v>
+      </c>
+      <c r="D9">
         <v>28.06110254923504</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>8.776429366414069</v>
+        <v>2.990881095987294</v>
       </c>
       <c r="C10">
-        <v>7.023046901630848</v>
+        <v>5.429757451008084</v>
+      </c>
+      <c r="D10">
+        <v>5.306771018384979</v>
       </c>
     </row>
   </sheetData>
@@ -1856,117 +2219,147 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>1232.403108248879</v>
+        <v>3823.266351615884</v>
       </c>
       <c r="C3">
-        <v>922.9464692526137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>1080.057927617719</v>
+      </c>
+      <c r="D3">
+        <v>315.0178512219474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2309.809852946891</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3202.510055419329</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>50.66053390502898</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3361.264736938477</v>
       </c>
       <c r="C6">
-        <v>25.11957288119877</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>441.268180847168</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>682.4411909894238</v>
+        <v>3621.637607327477</v>
       </c>
       <c r="C7">
-        <v>441.805108080415</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>923.2916487207938</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>3252.238421969944</v>
+        <v>4537.612388078708</v>
       </c>
       <c r="C8">
-        <v>1502.526259357534</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>1666.477325277524</v>
+      </c>
+      <c r="D8">
+        <v>19.81366729736328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>8308.152691708603</v>
       </c>
       <c r="C9">
+        <v>5177.264682195578</v>
+      </c>
+      <c r="D9">
         <v>6632.115772247314</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>1750.363761111197</v>
+        <v>1102.768118754782</v>
       </c>
       <c r="C10">
-        <v>1468.599150053515</v>
+        <v>1261.139064006255</v>
+      </c>
+      <c r="D10">
+        <v>981.478072376681</v>
       </c>
     </row>
   </sheetData>
